--- a/grupos/6APV - Estadisticos 20202.xlsx
+++ b/grupos/6APV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="112">
   <si>
     <t>Materia</t>
   </si>
@@ -203,154 +203,154 @@
     <t>PAZ</t>
   </si>
   <si>
+    <t>VILLA</t>
+  </si>
+  <si>
+    <t>COXCAHUA</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>BUSTAMANTE</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>LORENZO</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>MONTERROSAS</t>
+  </si>
+  <si>
+    <t>MACARIO</t>
+  </si>
+  <si>
+    <t>SERGIO JOSUE</t>
+  </si>
+  <si>
+    <t>CRISTIAN FELIPE</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>ARELY</t>
+  </si>
+  <si>
+    <t>ANGEL RODRIGO</t>
+  </si>
+  <si>
+    <t>DIEGO BERSAIN</t>
+  </si>
+  <si>
+    <t>BRANDON</t>
+  </si>
+  <si>
+    <t>YULENNY</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>URI YAEL</t>
+  </si>
+  <si>
+    <t>CASIANO</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>ESTRELLA</t>
+  </si>
+  <si>
+    <t>ESTEVEZ</t>
+  </si>
+  <si>
+    <t>GARATE</t>
+  </si>
+  <si>
+    <t>GUZMAN</t>
+  </si>
+  <si>
+    <t>LIBONATTI</t>
+  </si>
+  <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
     <t>SANDOVAL</t>
   </si>
   <si>
-    <t>VILLA</t>
-  </si>
-  <si>
-    <t>COXCAHUA</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>BUSTAMANTE</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>LORENZO</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>MONTERROSAS</t>
+    <t>TERRAZAS</t>
+  </si>
+  <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>FIGUEROA</t>
+  </si>
+  <si>
+    <t>ELIAS</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
   </si>
   <si>
     <t>FLORES</t>
   </si>
   <si>
-    <t>MACARIO</t>
-  </si>
-  <si>
-    <t>SERGIO JOSUE</t>
-  </si>
-  <si>
-    <t>CRISTIAN FELIPE</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO</t>
-  </si>
-  <si>
-    <t>ARELY</t>
-  </si>
-  <si>
-    <t>ANGEL RODRIGO</t>
-  </si>
-  <si>
-    <t>DIEGO BERSAIN</t>
-  </si>
-  <si>
-    <t>BRANDON</t>
-  </si>
-  <si>
-    <t>YULENNY</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
+    <t>DIANA MIRELLY</t>
+  </si>
+  <si>
+    <t>YAEL</t>
+  </si>
+  <si>
+    <t>ARIDETH</t>
+  </si>
+  <si>
+    <t>FRANCISCO MIGUEL</t>
+  </si>
+  <si>
+    <t>DEMIAN JESUS</t>
+  </si>
+  <si>
+    <t>OSWALDO IVAN</t>
+  </si>
+  <si>
+    <t>EBERTH JUVIEL</t>
+  </si>
+  <si>
+    <t>JORGE ANTONIO</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE</t>
   </si>
   <si>
     <t>PAUL ENRIQUE</t>
-  </si>
-  <si>
-    <t>URI YAEL</t>
-  </si>
-  <si>
-    <t>CASIANO</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>ESTRELLA</t>
-  </si>
-  <si>
-    <t>ESTEVEZ</t>
-  </si>
-  <si>
-    <t>GARATE</t>
-  </si>
-  <si>
-    <t>GUZMAN</t>
-  </si>
-  <si>
-    <t>LIBONATTI</t>
-  </si>
-  <si>
-    <t>MARROQUIN</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>TERRAZAS</t>
-  </si>
-  <si>
-    <t>MARCELINO</t>
-  </si>
-  <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>FIGUEROA</t>
-  </si>
-  <si>
-    <t>ELIAS</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>DIANA MIRELLY</t>
-  </si>
-  <si>
-    <t>YAEL</t>
-  </si>
-  <si>
-    <t>ARIDETH</t>
-  </si>
-  <si>
-    <t>FRANCISCO MIGUEL</t>
-  </si>
-  <si>
-    <t>DEMIAN JESUS</t>
-  </si>
-  <si>
-    <t>OSWALDO IVAN</t>
-  </si>
-  <si>
-    <t>EBERTH JUVIEL</t>
-  </si>
-  <si>
-    <t>JORGE ANTONIO</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE</t>
   </si>
   <si>
     <t>JUAN DAVID</t>
@@ -872,7 +872,7 @@
         <v>6</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M4">
         <v>-1</v>
@@ -890,7 +890,7 @@
         <v>6</v>
       </c>
       <c r="R4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S4">
         <v>-1</v>
@@ -1846,7 +1846,7 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -1864,7 +1864,7 @@
         <v>6</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -1882,7 +1882,7 @@
         <v>7</v>
       </c>
       <c r="O17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P17">
         <v>-1</v>
@@ -1891,7 +1891,7 @@
         <v>6</v>
       </c>
       <c r="R17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S17">
         <v>-1</v>
@@ -1900,7 +1900,7 @@
         <v>6</v>
       </c>
       <c r="U17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V17">
         <v>5</v>
@@ -1909,7 +1909,7 @@
         <v>6</v>
       </c>
       <c r="X17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y17">
         <v>-1</v>
@@ -2231,7 +2231,7 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -2249,7 +2249,7 @@
         <v>6</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -2267,7 +2267,7 @@
         <v>7</v>
       </c>
       <c r="O22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P22">
         <v>-1</v>
@@ -2285,7 +2285,7 @@
         <v>6</v>
       </c>
       <c r="U22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V22">
         <v>5</v>
@@ -2595,13 +2595,13 @@
         <v>28.57</v>
       </c>
       <c r="H4">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2647,25 +2647,25 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>80.95</v>
+        <v>90.48</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>19.05</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2707,7 +2707,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2745,16 +2745,16 @@
         <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2765,10 +2765,10 @@
         <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -2779,22 +2779,22 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>18330051920436</v>
+        <v>18330051920112</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2805,50 +2805,50 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>18330051920112</v>
+        <v>18330051920116</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
         <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18330051920116</v>
+        <v>18330051920120</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -2859,16 +2859,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>18330051920120</v>
+        <v>18330051920121</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -2879,16 +2879,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920121</v>
+        <v>18330051920442</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
         <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -2899,16 +2899,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920442</v>
+        <v>18330051920127</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -2919,33 +2919,33 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920127</v>
+        <v>18330051920128</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
         <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920127</v>
+        <v>18330051920455</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
         <v>80</v>
@@ -2959,13 +2959,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920128</v>
+        <v>18330051920135</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
         <v>81</v>
@@ -2974,66 +2974,6 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>18330051920455</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>18330051920132</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>18330051920135</v>
-      </c>
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3079,13 +3019,13 @@
         <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3096,10 +3036,10 @@
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -3107,33 +3047,33 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>18330051920127</v>
+        <v>18330051920116</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>18330051920116</v>
+        <v>18330051920120</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3141,16 +3081,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>18330051920120</v>
+        <v>18330051920121</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -3158,16 +3098,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>18330051920121</v>
+        <v>18330051920442</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3175,16 +3115,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920442</v>
+        <v>18330051920127</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3198,10 +3138,10 @@
         <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -3215,10 +3155,10 @@
         <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -3226,16 +3166,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920132</v>
+        <v>18330051920135</v>
       </c>
       <c r="B11" t="s">
         <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3243,30 +3183,30 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18330051920135</v>
+        <v>18330051920113</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>18330051920113</v>
+        <v>18330051920115</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
         <v>102</v>
@@ -3277,13 +3217,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920115</v>
+        <v>18330051920118</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
         <v>103</v>
@@ -3294,13 +3234,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18330051920118</v>
+        <v>18330051920117</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
         <v>104</v>
@@ -3311,13 +3251,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18330051920117</v>
+        <v>18330051920119</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
         <v>105</v>
@@ -3328,13 +3268,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18330051920119</v>
+        <v>18330051920122</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
         <v>106</v>
@@ -3345,13 +3285,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18330051920122</v>
+        <v>18330051920125</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
         <v>107</v>
@@ -3362,13 +3302,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>18330051920125</v>
+        <v>17330051920466</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
         <v>108</v>
@@ -3379,13 +3319,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>17330051920466</v>
+        <v>18330051920130</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
         <v>109</v>
@@ -3396,13 +3336,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>18330051920130</v>
+        <v>18330051920132</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
         <v>110</v>
@@ -3416,7 +3356,7 @@
         <v>18330051920133</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
         <v>56</v>
@@ -3476,10 +3416,10 @@
         <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -3499,10 +3439,10 @@
         <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -3519,13 +3459,13 @@
         <v>18330051920135</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -3542,13 +3482,13 @@
         <v>18330051920135</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -3565,13 +3505,13 @@
         <v>18330051920113</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
         <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -3591,10 +3531,10 @@
         <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -3614,10 +3554,10 @@
         <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -3637,10 +3577,10 @@
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -3660,10 +3600,10 @@
         <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -3680,13 +3620,13 @@
         <v>18330051920130</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>

--- a/grupos/6APV - Estadisticos 20202.xlsx
+++ b/grupos/6APV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="112">
   <si>
     <t>Materia</t>
   </si>
@@ -884,7 +884,7 @@
         <v>-1</v>
       </c>
       <c r="P4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -922,7 +922,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -940,7 +940,7 @@
         <v>6</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -958,10 +958,10 @@
         <v>7</v>
       </c>
       <c r="O5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -976,7 +976,7 @@
         <v>6</v>
       </c>
       <c r="U5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V5">
         <v>5</v>
@@ -1192,7 +1192,7 @@
         <v>10</v>
       </c>
       <c r="P8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -1210,7 +1210,7 @@
         <v>10</v>
       </c>
       <c r="V8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W8">
         <v>7</v>
@@ -1731,7 +1731,7 @@
         <v>10</v>
       </c>
       <c r="P15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -1885,7 +1885,7 @@
         <v>7</v>
       </c>
       <c r="P17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -2270,7 +2270,7 @@
         <v>6</v>
       </c>
       <c r="P22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -2288,7 +2288,7 @@
         <v>6</v>
       </c>
       <c r="V22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W22">
         <v>6</v>
@@ -2424,7 +2424,7 @@
         <v>10</v>
       </c>
       <c r="P24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -2647,25 +2647,25 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>90.48</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>9.52</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2707,7 +2707,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2751,10 +2751,10 @@
         <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2771,10 +2771,10 @@
         <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2799,36 +2799,36 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>18330051920112</v>
+        <v>18330051920116</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>18330051920116</v>
+        <v>18330051920120</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -2839,16 +2839,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18330051920120</v>
+        <v>18330051920121</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -2859,16 +2859,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>18330051920121</v>
+        <v>18330051920442</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -2879,16 +2879,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920442</v>
+        <v>18330051920127</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -2899,16 +2899,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920127</v>
+        <v>18330051920128</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -2919,16 +2919,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920128</v>
+        <v>18330051920455</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -2939,41 +2939,21 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920455</v>
+        <v>18330051920135</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>18330051920135</v>
-      </c>
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3042,7 +3022,7 @@
         <v>73</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">

--- a/grupos/6APV - Estadisticos 20202.xlsx
+++ b/grupos/6APV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="112">
   <si>
     <t>Materia</t>
   </si>
@@ -158,10 +158,10 @@
     <t>Sánchez Sánchez Miguel</t>
   </si>
   <si>
+    <t>Jiménez Nieto Enrique</t>
+  </si>
+  <si>
     <t>Acevedo Rendón Ismael Arturo</t>
-  </si>
-  <si>
-    <t>Jiménez Nieto Enrique</t>
   </si>
   <si>
     <t>NC</t>
@@ -845,7 +845,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -863,7 +863,7 @@
         <v>6</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -881,7 +881,7 @@
         <v>7</v>
       </c>
       <c r="O4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P4">
         <v>5</v>
@@ -899,7 +899,7 @@
         <v>6</v>
       </c>
       <c r="U4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V4">
         <v>5</v>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -2647,30 +2647,30 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>95.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8.699999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>4.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.5</v>
+        <v>8.6</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2707,7 +2707,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2759,36 +2759,36 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>18330051920436</v>
+        <v>18330051920112</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>18330051920112</v>
+        <v>18330051920116</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -2799,16 +2799,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>18330051920116</v>
+        <v>18330051920120</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -2819,16 +2819,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>18330051920120</v>
+        <v>18330051920121</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -2839,16 +2839,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18330051920121</v>
+        <v>18330051920442</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -2859,16 +2859,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>18330051920442</v>
+        <v>18330051920127</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -2879,16 +2879,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920127</v>
+        <v>18330051920128</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -2899,16 +2899,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920128</v>
+        <v>18330051920455</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -2919,41 +2919,21 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920455</v>
+        <v>18330051920135</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>18330051920135</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3005,7 +2985,7 @@
         <v>72</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">

--- a/grupos/6APV - Estadisticos 20202.xlsx
+++ b/grupos/6APV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="112">
   <si>
     <t>Materia</t>
   </si>
@@ -146,24 +146,24 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Polanco Domínguez Rosa María</t>
+  </si>
+  <si>
     <t>Domínguez Burgos Marioscar</t>
   </si>
   <si>
-    <t>Polanco Domínguez Rosa María</t>
-  </si>
-  <si>
     <t>Gaspar Velazco Juan Francisco</t>
   </si>
   <si>
+    <t>Jiménez Nieto Enrique</t>
+  </si>
+  <si>
+    <t>Acevedo Rendón Ismael Arturo</t>
+  </si>
+  <si>
     <t>Sánchez Sánchez Miguel</t>
   </si>
   <si>
-    <t>Jiménez Nieto Enrique</t>
-  </si>
-  <si>
-    <t>Acevedo Rendón Ismael Arturo</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -182,18 +182,42 @@
     <t>CARRERA</t>
   </si>
   <si>
+    <t>CASIANO</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>ESTRELLA</t>
+  </si>
+  <si>
+    <t>ESTEVEZ</t>
+  </si>
+  <si>
     <t>ESPIRITU</t>
   </si>
   <si>
+    <t>GARATE</t>
+  </si>
+  <si>
     <t>GIL</t>
   </si>
   <si>
     <t>GONZALEZ</t>
   </si>
   <si>
+    <t>GUZMAN</t>
+  </si>
+  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
+    <t>LIBONATTI</t>
+  </si>
+  <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
     <t>MANZANET</t>
   </si>
   <si>
@@ -203,6 +227,15 @@
     <t>PAZ</t>
   </si>
   <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>SANDOVAL</t>
+  </si>
+  <si>
+    <t>TERRAZAS</t>
+  </si>
+  <si>
     <t>VILLA</t>
   </si>
   <si>
@@ -212,19 +245,37 @@
     <t>GOMEZ</t>
   </si>
   <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
     <t>BUSTAMANTE</t>
   </si>
   <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
     <t>REYES</t>
   </si>
   <si>
+    <t>MORALES</t>
+  </si>
+  <si>
     <t>LORENZO</t>
   </si>
   <si>
-    <t>LOPEZ</t>
+    <t>FIGUEROA</t>
+  </si>
+  <si>
+    <t>ELIAS</t>
   </si>
   <si>
     <t>SARMIENTO</t>
@@ -233,6 +284,12 @@
     <t>MONTERROSAS</t>
   </si>
   <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
     <t>MACARIO</t>
   </si>
   <si>
@@ -242,18 +299,42 @@
     <t>CRISTIAN FELIPE</t>
   </si>
   <si>
+    <t>DIANA MIRELLY</t>
+  </si>
+  <si>
+    <t>YAEL</t>
+  </si>
+  <si>
+    <t>ARIDETH</t>
+  </si>
+  <si>
+    <t>FRANCISCO MIGUEL</t>
+  </si>
+  <si>
     <t>JOSE ANTONIO</t>
   </si>
   <si>
+    <t>DEMIAN JESUS</t>
+  </si>
+  <si>
     <t>ARELY</t>
   </si>
   <si>
     <t>ANGEL RODRIGO</t>
   </si>
   <si>
+    <t>OSWALDO IVAN</t>
+  </si>
+  <si>
     <t>DIEGO BERSAIN</t>
   </si>
   <si>
+    <t>EBERTH JUVIEL</t>
+  </si>
+  <si>
+    <t>JORGE ANTONIO</t>
+  </si>
+  <si>
     <t>BRANDON</t>
   </si>
   <si>
@@ -263,97 +344,16 @@
     <t>DANIEL</t>
   </si>
   <si>
+    <t>LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>PAUL ENRIQUE</t>
+  </si>
+  <si>
+    <t>JUAN DAVID</t>
+  </si>
+  <si>
     <t>URI YAEL</t>
-  </si>
-  <si>
-    <t>CASIANO</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>ESTRELLA</t>
-  </si>
-  <si>
-    <t>ESTEVEZ</t>
-  </si>
-  <si>
-    <t>GARATE</t>
-  </si>
-  <si>
-    <t>GUZMAN</t>
-  </si>
-  <si>
-    <t>LIBONATTI</t>
-  </si>
-  <si>
-    <t>MARROQUIN</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>SANDOVAL</t>
-  </si>
-  <si>
-    <t>TERRAZAS</t>
-  </si>
-  <si>
-    <t>MARCELINO</t>
-  </si>
-  <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>FIGUEROA</t>
-  </si>
-  <si>
-    <t>ELIAS</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>DIANA MIRELLY</t>
-  </si>
-  <si>
-    <t>YAEL</t>
-  </si>
-  <si>
-    <t>ARIDETH</t>
-  </si>
-  <si>
-    <t>FRANCISCO MIGUEL</t>
-  </si>
-  <si>
-    <t>DEMIAN JESUS</t>
-  </si>
-  <si>
-    <t>OSWALDO IVAN</t>
-  </si>
-  <si>
-    <t>EBERTH JUVIEL</t>
-  </si>
-  <si>
-    <t>JORGE ANTONIO</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE</t>
-  </si>
-  <si>
-    <t>PAUL ENRIQUE</t>
-  </si>
-  <si>
-    <t>JUAN DAVID</t>
   </si>
 </sst>
 </file>
@@ -857,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N4">
         <v>7</v>
@@ -893,7 +893,7 @@
         <v>5</v>
       </c>
       <c r="S4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T4">
         <v>6</v>
@@ -911,7 +911,7 @@
         <v>5</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -934,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -952,7 +952,7 @@
         <v>7</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N5">
         <v>7</v>
@@ -970,7 +970,7 @@
         <v>9</v>
       </c>
       <c r="S5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T5">
         <v>6</v>
@@ -988,7 +988,7 @@
         <v>7</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1124,7 +1124,7 @@
         <v>9</v>
       </c>
       <c r="S7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T7">
         <v>9</v>
@@ -1142,7 +1142,7 @@
         <v>8</v>
       </c>
       <c r="Y7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1165,7 +1165,7 @@
         <v>9</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <v>6</v>
@@ -1183,7 +1183,7 @@
         <v>6</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N8">
         <v>9</v>
@@ -1201,7 +1201,7 @@
         <v>7</v>
       </c>
       <c r="S8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T8">
         <v>8</v>
@@ -1219,7 +1219,7 @@
         <v>7</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1432,7 +1432,7 @@
         <v>9</v>
       </c>
       <c r="S11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T11">
         <v>8</v>
@@ -1450,7 +1450,7 @@
         <v>8</v>
       </c>
       <c r="Y11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1473,7 +1473,7 @@
         <v>9</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>6</v>
@@ -1491,7 +1491,7 @@
         <v>6</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N12">
         <v>8</v>
@@ -1509,7 +1509,7 @@
         <v>5</v>
       </c>
       <c r="S12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T12">
         <v>7</v>
@@ -1527,7 +1527,7 @@
         <v>7</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1568,7 +1568,7 @@
         <v>6</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N13">
         <v>8</v>
@@ -1586,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="S13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T13">
         <v>7</v>
@@ -1604,7 +1604,7 @@
         <v>7</v>
       </c>
       <c r="Y13">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1704,7 +1704,7 @@
         <v>4</v>
       </c>
       <c r="G15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H15">
         <v>6</v>
@@ -1722,7 +1722,7 @@
         <v>7</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N15">
         <v>7</v>
@@ -1740,7 +1740,7 @@
         <v>9</v>
       </c>
       <c r="S15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T15">
         <v>6</v>
@@ -1758,7 +1758,7 @@
         <v>7</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1858,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H17">
         <v>6</v>
@@ -1876,7 +1876,7 @@
         <v>6</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N17">
         <v>7</v>
@@ -1894,7 +1894,7 @@
         <v>7</v>
       </c>
       <c r="S17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T17">
         <v>6</v>
@@ -1912,7 +1912,7 @@
         <v>6</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2012,7 +2012,7 @@
         <v>6</v>
       </c>
       <c r="G19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H19">
         <v>10</v>
@@ -2030,7 +2030,7 @@
         <v>6</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N19">
         <v>10</v>
@@ -2048,7 +2048,7 @@
         <v>9</v>
       </c>
       <c r="S19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T19">
         <v>10</v>
@@ -2066,7 +2066,7 @@
         <v>7</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2089,7 +2089,7 @@
         <v>8</v>
       </c>
       <c r="G20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H20">
         <v>6</v>
@@ -2107,7 +2107,7 @@
         <v>6</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N20">
         <v>8</v>
@@ -2125,7 +2125,7 @@
         <v>6</v>
       </c>
       <c r="S20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T20">
         <v>8</v>
@@ -2143,7 +2143,7 @@
         <v>7</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2397,7 +2397,7 @@
         <v>7</v>
       </c>
       <c r="G24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H24">
         <v>6</v>
@@ -2415,7 +2415,7 @@
         <v>6</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N24">
         <v>8</v>
@@ -2433,7 +2433,7 @@
         <v>5</v>
       </c>
       <c r="S24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T24">
         <v>7</v>
@@ -2451,7 +2451,7 @@
         <v>6</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2510,7 +2510,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -2519,19 +2519,19 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>47.62</v>
+        <v>57.14</v>
       </c>
       <c r="G2">
-        <v>52.38</v>
+        <v>42.86</v>
       </c>
       <c r="H2">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2542,7 +2542,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
@@ -2551,25 +2551,25 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>52.38</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="G3">
-        <v>4.76</v>
+        <v>28.57</v>
       </c>
       <c r="H3">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>47.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2583,19 +2583,19 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>71.43000000000001</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="G4">
-        <v>28.57</v>
+        <v>4.76</v>
       </c>
       <c r="H4">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
@@ -2615,19 +2615,19 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>71.43000000000001</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>28.57</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.5</v>
+        <v>8.6</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8.6</v>
+        <v>7.5</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2707,7 +2707,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2735,206 +2735,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>18330051920436</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>18330051920112</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>18330051920116</v>
-      </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>18330051920120</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>18330051920121</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>18330051920442</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>18330051920127</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>18330051920128</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>18330051920455</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>18330051920135</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2979,13 +2779,13 @@
         <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2996,160 +2796,160 @@
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>18330051920116</v>
+        <v>18330051920113</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>18330051920120</v>
+        <v>18330051920115</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>18330051920121</v>
+        <v>18330051920118</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>18330051920442</v>
+        <v>18330051920117</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920127</v>
+        <v>18330051920116</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>18330051920128</v>
+        <v>18330051920119</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>18330051920455</v>
+        <v>18330051920120</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920135</v>
+        <v>18330051920121</v>
       </c>
       <c r="B11" t="s">
         <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18330051920113</v>
+        <v>18330051920122</v>
       </c>
       <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
         <v>82</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
       </c>
       <c r="D12" t="s">
         <v>101</v>
@@ -3160,13 +2960,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>18330051920115</v>
+        <v>18330051920442</v>
       </c>
       <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
         <v>83</v>
-      </c>
-      <c r="C13" t="s">
-        <v>93</v>
       </c>
       <c r="D13" t="s">
         <v>102</v>
@@ -3177,13 +2977,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920118</v>
+        <v>18330051920125</v>
       </c>
       <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
         <v>84</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
       </c>
       <c r="D14" t="s">
         <v>103</v>
@@ -3194,13 +2994,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18330051920117</v>
+        <v>17330051920466</v>
       </c>
       <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
         <v>85</v>
-      </c>
-      <c r="C15" t="s">
-        <v>94</v>
       </c>
       <c r="D15" t="s">
         <v>104</v>
@@ -3211,13 +3011,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18330051920119</v>
+        <v>18330051920127</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
         <v>105</v>
@@ -3228,13 +3028,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18330051920122</v>
+        <v>18330051920128</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
         <v>106</v>
@@ -3245,13 +3045,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18330051920125</v>
+        <v>18330051920455</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
         <v>107</v>
@@ -3262,13 +3062,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>17330051920466</v>
+        <v>18330051920130</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
         <v>108</v>
@@ -3279,13 +3079,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18330051920130</v>
+        <v>18330051920132</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
         <v>109</v>
@@ -3296,13 +3096,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>18330051920132</v>
+        <v>18330051920133</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
         <v>110</v>
@@ -3313,13 +3113,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>18330051920133</v>
+        <v>18330051920135</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
         <v>111</v>
@@ -3335,7 +3135,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3365,73 +3165,73 @@
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920128</v>
+        <v>18330051920112</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920128</v>
+        <v>18330051920112</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920135</v>
+        <v>18330051920116</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -3439,45 +3239,45 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920135</v>
+        <v>18330051920116</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920113</v>
+        <v>18330051920442</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -3485,116 +3285,185 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330051920116</v>
+        <v>18330051920442</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>18330051920120</v>
+        <v>18330051920127</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
         <v>43</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>18330051920121</v>
+        <v>18330051920127</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>18330051920455</v>
+        <v>18330051920135</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
         <v>43</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>18330051920130</v>
+        <v>18330051920135</v>
       </c>
       <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
         <v>90</v>
       </c>
-      <c r="C11" t="s">
-        <v>99</v>
-      </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
         <v>42</v>
       </c>
       <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>18330051920120</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>18330051920128</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>18330051920455</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14">
         <v>5</v>
       </c>
     </row>
